--- a/School.Financial/ReportSrc/vatcertificate.xlsx
+++ b/School.Financial/ReportSrc/vatcertificate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <r>
       <t xml:space="preserve">ฉบับที่ 1 </t>
@@ -458,9 +458,6 @@
     <t>ผู้จ่ายเงิน</t>
   </si>
   <si>
-    <t>…………………………………………………..</t>
-  </si>
-  <si>
     <t xml:space="preserve"> คำเตือน</t>
   </si>
   <si>
@@ -483,6 +480,39 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>☐ (1) ภ.ง.ด.1ก</t>
+  </si>
+  <si>
+    <t>☐ (5) ภ.ง.ด.2ก</t>
+  </si>
+  <si>
+    <t>☐ (2) ภ.ง.ด.1ก พิเศษ</t>
+  </si>
+  <si>
+    <t>☐ (6) ภ.ง.ด.3ก</t>
+  </si>
+  <si>
+    <t>☐ (3) ภ.ง.ด.2</t>
+  </si>
+  <si>
+    <t>☐ (4) ภ.ง.ด.3</t>
+  </si>
+  <si>
+    <t>☐ (7) ภ.ง.ด.53</t>
+  </si>
+  <si>
+    <t>☑ (1) หัก ณ ที่จ่าย</t>
+  </si>
+  <si>
+    <t>☐ (2) ออกให้ตลอดไป</t>
+  </si>
+  <si>
+    <t>☑ (3) ออกให้ครั้งเดียว</t>
+  </si>
+  <si>
+    <t>☐ (4) อื่นๆ (ระบุ) ............................</t>
   </si>
 </sst>
 </file>
@@ -496,7 +526,7 @@
     <numFmt numFmtId="166" formatCode="[$-107041E]d\ mmm\ yy;@"/>
     <numFmt numFmtId="167" formatCode="[$-107041E]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,12 +634,6 @@
       <charset val="222"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="23"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Microsoft Sans Serif"/>
@@ -633,6 +657,25 @@
     <font>
       <sz val="12"/>
       <name val="Cordia New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color indexed="23"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1073,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -1170,7 +1213,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1288,10 +1330,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1309,17 +1348,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1340,6 +1379,180 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1382,185 +1595,27 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1600,7 +1655,7 @@
         <xdr:cNvPr id="3" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1711,7 @@
         <xdr:cNvPr id="2" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,59 +2134,59 @@
     </row>
     <row r="3" spans="1:19" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="164"/>
       <c r="Q3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="104" t="s">
-        <v>82</v>
+      <c r="S3" s="102" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
       <c r="Q4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="105"/>
+      <c r="S4" s="103"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
@@ -2156,7 +2211,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="14"/>
-      <c r="S5" s="105"/>
+      <c r="S5" s="103"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2164,17 +2219,17 @@
         <v>10</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
       <c r="M6" s="17" t="s">
         <v>12</v>
       </c>
@@ -2182,10 +2237,10 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="108" t="s">
+      <c r="R6" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="111"/>
+      <c r="S6" s="109"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -2210,7 +2265,7 @@
       <c r="R7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="112"/>
+      <c r="S7" s="110"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -2218,24 +2273,24 @@
         <v>16</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130"/>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="105"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="166"/>
+      <c r="Q8" s="166"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="103"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
@@ -2258,7 +2313,7 @@
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="30"/>
-      <c r="S9" s="106"/>
+      <c r="S9" s="104"/>
     </row>
     <row r="10" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
@@ -2279,7 +2334,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
-      <c r="S10" s="105"/>
+      <c r="S10" s="103"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -2303,10 +2358,10 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="109" t="s">
+      <c r="R11" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="113"/>
+      <c r="S11" s="111"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
@@ -2332,10 +2387,10 @@
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="110" t="s">
+      <c r="R12" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="113"/>
+      <c r="S12" s="111"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
@@ -2360,7 +2415,7 @@
       <c r="R13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="112"/>
+      <c r="S13" s="110"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2385,7 +2440,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="34"/>
-      <c r="S14" s="105"/>
+      <c r="S14" s="103"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
@@ -2408,7 +2463,7 @@
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="36"/>
-      <c r="S15" s="106"/>
+      <c r="S15" s="104"/>
     </row>
     <row r="16" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -2429,7 +2484,7 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="38"/>
-      <c r="S16" s="105"/>
+      <c r="S16" s="103"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -2438,10 +2493,10 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="132">
+      <c r="E17" s="168">
         <v>1</v>
       </c>
-      <c r="F17" s="133"/>
+      <c r="F17" s="169"/>
       <c r="G17" s="39"/>
       <c r="H17" s="2"/>
       <c r="I17" s="17" t="s">
@@ -2456,7 +2511,7 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="38"/>
-      <c r="S17" s="105"/>
+      <c r="S17" s="103"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -2470,16 +2525,24 @@
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="105"/>
+      <c r="J18" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="186"/>
+      <c r="L18" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="186"/>
+      <c r="N18" s="186"/>
+      <c r="O18" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" s="189"/>
+      <c r="S18" s="103"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -2493,95 +2556,101 @@
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="105"/>
+      <c r="J19" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="186"/>
+      <c r="L19" s="190" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="184" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="103"/>
     </row>
     <row r="20" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="105"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="103"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="120" t="s">
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="122" t="s">
+      <c r="N21" s="177"/>
+      <c r="O21" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="120" t="s">
+      <c r="P21" s="179"/>
+      <c r="Q21" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="R21" s="121"/>
-      <c r="S21" s="105"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="103"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="126" t="s">
+      <c r="B22" s="173"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="127"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="126" t="s">
+      <c r="N22" s="183"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="127"/>
-      <c r="S22" s="105"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="103"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="22" t="s">
@@ -2595,20 +2664,20 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="137"/>
-      <c r="Q23" s="138">
+      <c r="L23" s="47"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="163"/>
+      <c r="Q23" s="152">
         <v>0</v>
       </c>
-      <c r="R23" s="139"/>
-      <c r="S23" s="106"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="104"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -2622,20 +2691,20 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="138">
+      <c r="L24" s="47"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="152"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="152">
         <v>0</v>
       </c>
-      <c r="R24" s="139"/>
-      <c r="S24" s="106"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="104"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2649,20 +2718,20 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="139"/>
-      <c r="Q25" s="138">
+      <c r="L25" s="47"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="152">
         <v>0</v>
       </c>
-      <c r="R25" s="139"/>
-      <c r="S25" s="106"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="104"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -2676,20 +2745,20 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="138"/>
-      <c r="P26" s="139"/>
-      <c r="Q26" s="138">
+      <c r="L26" s="47"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="152"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="152">
         <v>0</v>
       </c>
-      <c r="R26" s="139"/>
-      <c r="S26" s="106"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="104"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="47"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="22" t="s">
         <v>42</v>
       </c>
@@ -2701,22 +2770,22 @@
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="138">
+      <c r="L27" s="47"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="152">
         <v>0</v>
       </c>
-      <c r="R27" s="139"/>
-      <c r="S27" s="106"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="104"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="50" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="49" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -2728,151 +2797,151 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="149"/>
-      <c r="Q28" s="138">
+      <c r="L28" s="47"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="152">
         <v>0</v>
       </c>
-      <c r="R28" s="139"/>
-      <c r="S28" s="106"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="104"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="138">
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="152">
         <v>0</v>
       </c>
-      <c r="R29" s="139"/>
-      <c r="S29" s="106"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="104"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="48" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="150"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="153"/>
-      <c r="Q30" s="138">
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="152">
         <v>0</v>
       </c>
-      <c r="R30" s="139"/>
-      <c r="S30" s="106"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="104"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="48" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="139"/>
-      <c r="Q31" s="138">
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="153"/>
+      <c r="Q31" s="152">
         <v>0</v>
       </c>
-      <c r="R31" s="139"/>
-      <c r="S31" s="106"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="104"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="48" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="138"/>
-      <c r="P32" s="139"/>
-      <c r="Q32" s="138">
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="152"/>
+      <c r="P32" s="153"/>
+      <c r="Q32" s="152">
         <v>0</v>
       </c>
-      <c r="R32" s="139"/>
-      <c r="S32" s="106"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="104"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="48" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="55">
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="54">
         <v>40</v>
       </c>
-      <c r="J33" s="48" t="s">
+      <c r="J33" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="48"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="138"/>
-      <c r="P33" s="139"/>
-      <c r="Q33" s="138">
+      <c r="K33" s="47"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="153"/>
+      <c r="Q33" s="152">
         <v>0</v>
       </c>
-      <c r="R33" s="139"/>
-      <c r="S33" s="106"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="104"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="50" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="49" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -2884,391 +2953,391 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="138">
+      <c r="L34" s="51"/>
+      <c r="M34" s="154"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="152">
         <v>0</v>
       </c>
-      <c r="R34" s="139"/>
-      <c r="S34" s="106"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="104"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="48" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="150"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="152"/>
-      <c r="P35" s="153"/>
-      <c r="Q35" s="138">
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="150"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="152">
         <v>0</v>
       </c>
-      <c r="R35" s="139"/>
-      <c r="S35" s="106"/>
+      <c r="R35" s="153"/>
+      <c r="S35" s="104"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="48" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="142"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="145"/>
-      <c r="Q36" s="138">
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="152">
         <v>0</v>
       </c>
-      <c r="R36" s="139"/>
-      <c r="S36" s="106"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="104"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="150"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="152"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="138">
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="148"/>
+      <c r="N37" s="149"/>
+      <c r="O37" s="150"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="152">
         <v>0</v>
       </c>
-      <c r="R37" s="139"/>
-      <c r="S37" s="106"/>
+      <c r="R37" s="153"/>
+      <c r="S37" s="104"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="48" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="142"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="145"/>
-      <c r="Q38" s="138">
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="152">
         <v>0</v>
       </c>
-      <c r="R38" s="139"/>
-      <c r="S38" s="106"/>
+      <c r="R38" s="153"/>
+      <c r="S38" s="104"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="150"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="152"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="138">
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="149"/>
+      <c r="O39" s="150"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="152">
         <v>0</v>
       </c>
-      <c r="R39" s="139"/>
-      <c r="S39" s="106"/>
+      <c r="R39" s="153"/>
+      <c r="S39" s="104"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="48" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="150"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="152"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="138">
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="148"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="150"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="152">
         <v>0</v>
       </c>
-      <c r="R40" s="139"/>
-      <c r="S40" s="106"/>
+      <c r="R40" s="153"/>
+      <c r="S40" s="104"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="48" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="150"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="152"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="138">
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="148"/>
+      <c r="N41" s="149"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="152">
         <v>0</v>
       </c>
-      <c r="R41" s="139"/>
-      <c r="S41" s="106"/>
+      <c r="R41" s="153"/>
+      <c r="S41" s="104"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="142"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="144"/>
-      <c r="R42" s="145"/>
-      <c r="S42" s="106"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="154"/>
+      <c r="N42" s="155"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="157"/>
+      <c r="S42" s="104"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="61" t="s">
+      <c r="B43" s="46"/>
+      <c r="C43" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="62" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="154" t="s">
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="N43" s="155"/>
-      <c r="O43" s="156">
+      <c r="N43" s="140"/>
+      <c r="O43" s="141">
         <v>0</v>
       </c>
-      <c r="P43" s="157"/>
-      <c r="Q43" s="156">
+      <c r="P43" s="142"/>
+      <c r="Q43" s="141">
         <v>0</v>
       </c>
-      <c r="R43" s="157"/>
-      <c r="S43" s="106"/>
+      <c r="R43" s="142"/>
+      <c r="S43" s="104"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="158" t="s">
+      <c r="B44" s="46"/>
+      <c r="C44" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="158"/>
-      <c r="E44" s="158"/>
-      <c r="F44" s="158"/>
-      <c r="G44" s="158"/>
-      <c r="H44" s="158"/>
-      <c r="I44" s="158"/>
-      <c r="J44" s="158"/>
-      <c r="K44" s="158"/>
-      <c r="L44" s="159"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="106"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="104"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="158"/>
-      <c r="F45" s="158"/>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="158"/>
-      <c r="K45" s="158"/>
-      <c r="L45" s="159"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="143"/>
       <c r="M45" s="35"/>
       <c r="N45" s="36"/>
       <c r="O45" s="35"/>
       <c r="P45" s="36"/>
       <c r="Q45" s="35"/>
       <c r="R45" s="36"/>
-      <c r="S45" s="106"/>
+      <c r="S45" s="104"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-      <c r="L46" s="159"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="143"/>
       <c r="M46" s="35"/>
       <c r="N46" s="36"/>
       <c r="O46" s="35"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="35"/>
       <c r="R46" s="36"/>
-      <c r="S46" s="106"/>
+      <c r="S46" s="104"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="149"/>
-      <c r="Q47" s="148"/>
-      <c r="R47" s="149"/>
-      <c r="S47" s="106"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="146"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="146"/>
+      <c r="R47" s="147"/>
+      <c r="S47" s="104"/>
     </row>
     <row r="48" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
-      <c r="B48" s="47"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="106"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="104"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="73"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="75" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="O49" s="162">
+      <c r="O49" s="114">
         <v>0</v>
       </c>
-      <c r="P49" s="163"/>
-      <c r="Q49" s="162">
+      <c r="P49" s="115"/>
+      <c r="Q49" s="114">
         <v>0</v>
       </c>
-      <c r="R49" s="163"/>
-      <c r="S49" s="106"/>
+      <c r="R49" s="115"/>
+      <c r="S49" s="104"/>
     </row>
     <row r="50" spans="1:19" ht="4.3499999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="35"/>
       <c r="C50" s="22"/>
-      <c r="D50" s="76"/>
+      <c r="D50" s="75"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -3278,43 +3347,43 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="79"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="80"/>
-      <c r="S50" s="106"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="77"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="79"/>
+      <c r="S50" s="104"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
-      <c r="B51" s="81" t="s">
+      <c r="B51" s="80" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="27"/>
-      <c r="D51" s="82"/>
+      <c r="D51" s="81"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
-      <c r="I51" s="164" t="s">
+      <c r="I51" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="164"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="164"/>
-      <c r="M51" s="164"/>
-      <c r="N51" s="164"/>
-      <c r="O51" s="164"/>
-      <c r="P51" s="164"/>
-      <c r="Q51" s="164"/>
-      <c r="R51" s="165"/>
-      <c r="S51" s="106"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="116"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="104"/>
     </row>
     <row r="52" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
-      <c r="D52" s="83"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -3329,36 +3398,36 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
-      <c r="S52" s="105"/>
+      <c r="S52" s="103"/>
     </row>
     <row r="53" spans="1:19" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="167"/>
-      <c r="O53" s="167"/>
-      <c r="P53" s="167"/>
-      <c r="Q53" s="167"/>
-      <c r="R53" s="168"/>
-      <c r="S53" s="105"/>
+      <c r="C53" s="119"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="119"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
+      <c r="L53" s="119"/>
+      <c r="M53" s="119"/>
+      <c r="N53" s="119"/>
+      <c r="O53" s="119"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="103"/>
     </row>
     <row r="54" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="83"/>
+      <c r="D54" s="82"/>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -3373,32 +3442,38 @@
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
-      <c r="S54" s="105"/>
+      <c r="S54" s="103"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="169" t="s">
-        <v>74</v>
-      </c>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="170"/>
-      <c r="S55" s="105"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="185"/>
+      <c r="G55" s="185"/>
+      <c r="H55" s="185" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="185"/>
+      <c r="J55" s="185"/>
+      <c r="K55" s="185" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="185"/>
+      <c r="M55" s="185"/>
+      <c r="N55" s="185" t="s">
+        <v>92</v>
+      </c>
+      <c r="O55" s="187"/>
+      <c r="P55" s="187"/>
+      <c r="Q55" s="187"/>
+      <c r="R55" s="188"/>
+      <c r="S55" s="103"/>
     </row>
     <row r="56" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
@@ -3419,294 +3494,353 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
-      <c r="S56" s="105"/>
+      <c r="S56" s="103"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
-      <c r="B57" s="87" t="s">
+      <c r="B57" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
+      <c r="E57" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="171" t="s">
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="L57" s="177"/>
-      <c r="M57" s="177"/>
-      <c r="N57" s="177"/>
-      <c r="O57" s="177"/>
-      <c r="P57" s="177"/>
-      <c r="Q57" s="177"/>
-      <c r="R57" s="178"/>
-      <c r="S57" s="105"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="103"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="158"/>
-      <c r="H58" s="158"/>
-      <c r="I58" s="158"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="179" t="s">
-        <v>78</v>
-      </c>
-      <c r="L58" s="180"/>
-      <c r="M58" s="180"/>
-      <c r="N58" s="180"/>
-      <c r="O58" s="180"/>
-      <c r="P58" s="180"/>
-      <c r="Q58" s="180"/>
-      <c r="R58" s="181"/>
-      <c r="S58" s="105"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="131"/>
+      <c r="P58" s="131"/>
+      <c r="Q58" s="131"/>
+      <c r="R58" s="132"/>
+      <c r="S58" s="103"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="158"/>
-      <c r="G59" s="158"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="158"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="182" t="s">
-        <v>79</v>
-      </c>
-      <c r="L59" s="183"/>
-      <c r="M59" s="183"/>
-      <c r="N59" s="183"/>
-      <c r="O59" s="183"/>
-      <c r="P59" s="183"/>
-      <c r="Q59" s="183"/>
-      <c r="R59" s="184"/>
-      <c r="S59" s="105"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="133" t="s">
+        <v>78</v>
+      </c>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="134"/>
+      <c r="P59" s="134"/>
+      <c r="Q59" s="134"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="103"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="174"/>
-      <c r="F60" s="174"/>
-      <c r="G60" s="174"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="174"/>
-      <c r="J60" s="175"/>
-      <c r="K60" s="185" t="s">
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="137"/>
+      <c r="P60" s="137"/>
+      <c r="Q60" s="137"/>
+      <c r="R60" s="138"/>
+      <c r="S60" s="103"/>
+    </row>
+    <row r="61" spans="1:19" ht="4.3499999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="90"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="105"/>
+    </row>
+    <row r="62" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="92"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
+      <c r="L62" s="92"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+      <c r="O62" s="92"/>
+      <c r="P62" s="92"/>
+      <c r="Q62" s="92"/>
+      <c r="R62" s="92"/>
+      <c r="S62" s="92"/>
+    </row>
+    <row r="63" spans="1:19" ht="24" x14ac:dyDescent="0.5">
+      <c r="A63" s="93"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="95"/>
+      <c r="I63" s="95"/>
+      <c r="J63" s="95"/>
+      <c r="K63" s="95"/>
+      <c r="L63" s="95"/>
+      <c r="M63" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" s="112"/>
+      <c r="O63" s="112"/>
+      <c r="P63" s="112"/>
+      <c r="Q63" s="112"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="93"/>
+    </row>
+    <row r="64" spans="1:19" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A64" s="93"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="95"/>
+      <c r="N64" s="95"/>
+      <c r="O64" s="95"/>
+      <c r="P64" s="95"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="93"/>
+      <c r="S64" s="93"/>
+    </row>
+    <row r="65" spans="1:19" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A65" s="93"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
+      <c r="I65" s="95"/>
+      <c r="J65" s="95"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="98"/>
+      <c r="M65" s="99"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="95"/>
+      <c r="P65" s="95"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="93"/>
+    </row>
+    <row r="66" spans="1:19" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A66" s="93"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="95"/>
+      <c r="L66" s="95"/>
+      <c r="M66" s="95"/>
+      <c r="N66" s="95"/>
+      <c r="O66" s="95"/>
+      <c r="P66" s="95"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="93"/>
+      <c r="S66" s="93"/>
+    </row>
+    <row r="67" spans="1:19" ht="21.75" x14ac:dyDescent="0.35">
+      <c r="A67" s="93"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="93"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="L60" s="186"/>
-      <c r="M60" s="186"/>
-      <c r="N60" s="186"/>
-      <c r="O60" s="186"/>
-      <c r="P60" s="186"/>
-      <c r="Q60" s="186"/>
-      <c r="R60" s="187"/>
-      <c r="S60" s="105"/>
-    </row>
-    <row r="61" spans="1:19" ht="4.3499999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="92"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="93"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="93"/>
-      <c r="I61" s="93"/>
-      <c r="J61" s="93"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="93"/>
-      <c r="M61" s="93"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="93"/>
-      <c r="P61" s="93"/>
-      <c r="Q61" s="93"/>
-      <c r="R61" s="93"/>
-      <c r="S61" s="107"/>
-    </row>
-    <row r="62" spans="1:19" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="K62" s="94"/>
-      <c r="L62" s="94"/>
-      <c r="M62" s="94"/>
-      <c r="N62" s="94"/>
-      <c r="O62" s="94"/>
-      <c r="P62" s="94"/>
-      <c r="Q62" s="94"/>
-      <c r="R62" s="94"/>
-      <c r="S62" s="94"/>
-    </row>
-    <row r="63" spans="1:19" ht="24" x14ac:dyDescent="0.5">
-      <c r="A63" s="95"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="160" t="s">
-        <v>79</v>
-      </c>
-      <c r="N63" s="160"/>
-      <c r="O63" s="160"/>
-      <c r="P63" s="160"/>
-      <c r="Q63" s="160"/>
-      <c r="R63" s="95"/>
-      <c r="S63" s="95"/>
-    </row>
-    <row r="64" spans="1:19" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A64" s="95"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="97"/>
-      <c r="L64" s="97"/>
-      <c r="M64" s="97"/>
-      <c r="N64" s="97"/>
-      <c r="O64" s="97"/>
-      <c r="P64" s="97"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="95"/>
-    </row>
-    <row r="65" spans="1:19" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A65" s="95"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="100"/>
-      <c r="M65" s="101"/>
-      <c r="N65" s="97"/>
-      <c r="O65" s="97"/>
-      <c r="P65" s="97"/>
-      <c r="Q65" s="95"/>
-      <c r="R65" s="95"/>
-      <c r="S65" s="95"/>
-    </row>
-    <row r="66" spans="1:19" ht="21.75" x14ac:dyDescent="0.5">
-      <c r="A66" s="95"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="97"/>
-      <c r="L66" s="97"/>
-      <c r="M66" s="97"/>
-      <c r="N66" s="97"/>
-      <c r="O66" s="97"/>
-      <c r="P66" s="97"/>
-      <c r="Q66" s="95"/>
-      <c r="R66" s="95"/>
-      <c r="S66" s="95"/>
-    </row>
-    <row r="67" spans="1:19" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A67" s="95"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="H67" s="95"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="95"/>
-      <c r="O67" s="95"/>
-      <c r="P67" s="95"/>
-      <c r="Q67" s="95"/>
-      <c r="R67" s="95"/>
-      <c r="S67" s="95"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="93"/>
+      <c r="S67" s="93"/>
     </row>
     <row r="68" spans="1:19" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="95"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="161" t="s">
+      <c r="A68" s="93"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="93"/>
+      <c r="M68" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="N68" s="161"/>
-      <c r="O68" s="161"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="103"/>
-      <c r="R68" s="95"/>
-      <c r="S68" s="95"/>
+      <c r="N68" s="113"/>
+      <c r="O68" s="113"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="93"/>
+      <c r="S68" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="M63:Q63"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="I51:R51"/>
-    <mergeCell ref="B53:R53"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="E57:J60"/>
-    <mergeCell ref="K57:R57"/>
-    <mergeCell ref="K58:R58"/>
-    <mergeCell ref="K59:R59"/>
-    <mergeCell ref="K60:R60"/>
+  <mergeCells count="89">
+    <mergeCell ref="B21:L22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="Q43:R43"/>
@@ -3714,77 +3848,17 @@
     <mergeCell ref="M47:N47"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B21:L22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="M63:Q63"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="I51:R51"/>
+    <mergeCell ref="B53:R53"/>
+    <mergeCell ref="E57:J60"/>
+    <mergeCell ref="K57:R57"/>
+    <mergeCell ref="K58:R58"/>
+    <mergeCell ref="K59:R59"/>
+    <mergeCell ref="K60:R60"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
